--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H2">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>1.945178159597555</v>
+        <v>0.1202698646895556</v>
       </c>
       <c r="R2">
-        <v>17.506603436378</v>
+        <v>1.082428782206</v>
       </c>
       <c r="S2">
-        <v>0.02756951461213079</v>
+        <v>0.00170880864317341</v>
       </c>
       <c r="T2">
-        <v>0.02756951461213078</v>
+        <v>0.00170880864317341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H3">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
-        <v>5.008665903907557</v>
+        <v>0.1103609803271111</v>
       </c>
       <c r="R3">
-        <v>45.07799313516801</v>
+        <v>0.9932488229440002</v>
       </c>
       <c r="S3">
-        <v>0.07098912104463985</v>
+        <v>0.001568022027287067</v>
       </c>
       <c r="T3">
-        <v>0.07098912104463985</v>
+        <v>0.001568022027287067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H4">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
-        <v>7.385632069931554</v>
+        <v>0.1627350698191111</v>
       </c>
       <c r="R4">
-        <v>66.47068862938399</v>
+        <v>1.464615628372</v>
       </c>
       <c r="S4">
-        <v>0.1046784790725427</v>
+        <v>0.002312159364044537</v>
       </c>
       <c r="T4">
-        <v>0.1046784790725427</v>
+        <v>0.002312159364044537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.325482</v>
       </c>
       <c r="I5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>5.350382070726</v>
+        <v>15.013735059444</v>
       </c>
       <c r="R5">
-        <v>48.153438636534</v>
+        <v>135.123615534996</v>
       </c>
       <c r="S5">
-        <v>0.0758323529140803</v>
+        <v>0.2133169460372856</v>
       </c>
       <c r="T5">
-        <v>0.07583235291408029</v>
+        <v>0.2133169460372856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.325482</v>
       </c>
       <c r="I6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>13.776772126656</v>
@@ -818,10 +818,10 @@
         <v>123.990949139904</v>
       </c>
       <c r="S6">
-        <v>0.1952617648824624</v>
+        <v>0.1957420285274896</v>
       </c>
       <c r="T6">
-        <v>0.1952617648824624</v>
+        <v>0.1957420285274896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.325482</v>
       </c>
       <c r="I7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
         <v>20.314824743928</v>
@@ -880,10 +880,10 @@
         <v>182.833422695352</v>
       </c>
       <c r="S7">
-        <v>0.2879272805203992</v>
+        <v>0.2886354632274884</v>
       </c>
       <c r="T7">
-        <v>0.2879272805203992</v>
+        <v>0.2886354632274884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.896868</v>
       </c>
       <c r="I8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N8">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q8">
-        <v>2.275418781990667</v>
+        <v>6.385064522589334</v>
       </c>
       <c r="R8">
-        <v>20.478769037916</v>
+        <v>57.46558070330401</v>
       </c>
       <c r="S8">
-        <v>0.03225010061381083</v>
+        <v>0.09071976152616452</v>
       </c>
       <c r="T8">
-        <v>0.03225010061381082</v>
+        <v>0.09071976152616454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.896868</v>
       </c>
       <c r="I9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q9">
         <v>5.859007008810669</v>
@@ -1004,10 +1004,10 @@
         <v>52.73106307929601</v>
       </c>
       <c r="S9">
-        <v>0.08304122609283353</v>
+        <v>0.08324547336036628</v>
       </c>
       <c r="T9">
-        <v>0.08304122609283353</v>
+        <v>0.08324547336036629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.896868</v>
       </c>
       <c r="I10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.029036</v>
       </c>
       <c r="O10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q10">
         <v>8.639520162138666</v>
@@ -1066,10 +1066,10 @@
         <v>77.75568145924801</v>
       </c>
       <c r="S10">
-        <v>0.1224501602471004</v>
+        <v>0.1227513372867007</v>
       </c>
       <c r="T10">
-        <v>0.1224501602471004</v>
+        <v>0.1227513372867007</v>
       </c>
     </row>
   </sheetData>
